--- a/策划文档/测试_功能.xlsx
+++ b/策划文档/测试_功能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="879"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="879" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能" sheetId="17" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t>主城</t>
   </si>
@@ -225,10 +225,13 @@
     <t>神助：有[神助]状态的单位，行动时，应该必定会心，即便有[怯战]状态</t>
   </si>
   <si>
-    <t>弓骑：标记状态始终存在</t>
+    <t>弓骑：己方弓骑打己方被标记单位</t>
   </si>
   <si>
     <t>羽林：被晕了还反击</t>
+  </si>
+  <si>
+    <t>虎卫和陷阵：虎卫攻击陷阵时，若为触发无敌，则会吸血，陷阵掉血</t>
   </si>
   <si>
     <t>羽林：混乱的友方攻击时，会反击</t>
@@ -254,9 +257,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -281,6 +284,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,7 +336,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,57 +391,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -371,32 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,21 +427,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -470,187 +473,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,26 +667,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +694,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +741,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,17 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,9 +952,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,13 +1191,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1215,7 +1215,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="12854940"/>
+          <a:off x="3162300" y="13053060"/>
           <a:ext cx="2735580" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1233,13 +1233,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1257,7 +1257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="12870180"/>
+          <a:off x="114300" y="13068300"/>
           <a:ext cx="2735580" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1644,16 +1644,16 @@
   <sheetPr/>
   <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="13"/>
+    <col min="1" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1663,25 +1663,22 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4">
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4">
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="11" t="s">
@@ -1695,14 +1692,14 @@
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1709,6 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1723,10 +1719,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -2240,25 +2236,25 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
       <c r="B62" s="5" t="s">
         <v>1</v>
       </c>
@@ -2268,18 +2264,26 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/测试_功能.xlsx
+++ b/策划文档/测试_功能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>主城</t>
   </si>
@@ -189,6 +189,9 @@
     <t>近战和陷阵受击的状态</t>
   </si>
   <si>
+    <t>战车攻击时，播放火花</t>
+  </si>
+  <si>
     <t>计算</t>
   </si>
   <si>
@@ -232,6 +235,12 @@
   </si>
   <si>
     <t>虎卫和陷阵：虎卫攻击陷阵时，若为触发无敌，则会吸血，陷阵掉血</t>
+  </si>
+  <si>
+    <t>流血状态：没有伤害加成</t>
+  </si>
+  <si>
+    <t>统帅：第四个放火没有全屏</t>
   </si>
   <si>
     <t>羽林：混乱的友方攻击时，会反击</t>
@@ -257,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -291,15 +300,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,76 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +348,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -420,6 +406,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -427,6 +420,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -473,37 +482,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,145 +650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,25 +686,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +711,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -722,21 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1102,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9845040" y="8900160"/>
+          <a:off x="9845040" y="8907780"/>
           <a:ext cx="3169920" cy="3825240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1135,7 +1144,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="9578340"/>
+          <a:off x="6096000" y="9585960"/>
           <a:ext cx="2575560" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1160,7 +1169,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,13 +1200,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1215,7 +1224,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="13053060"/>
+          <a:off x="3162300" y="13456920"/>
           <a:ext cx="2735580" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1233,13 +1242,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1257,7 +1266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="13068300"/>
+          <a:off x="114300" y="13472160"/>
           <a:ext cx="2735580" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1719,10 +1728,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -2094,7 +2103,7 @@
       </c>
     </row>
     <row r="41" ht="16.2" spans="2:3">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2117,18 +2126,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3"/>
+    <row r="44" ht="16.2" spans="2:3">
+      <c r="B44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2137,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2146,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2155,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2164,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2173,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2182,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2191,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2200,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2208,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -2216,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2224,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -2232,7 +2246,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -2240,50 +2254,66 @@
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>1</v>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="11" t="s">
+      <c r="C66" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>77</v>
+      <c r="C67" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/测试_功能.xlsx
+++ b/策划文档/测试_功能.xlsx
@@ -300,14 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -325,15 +317,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,14 +354,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,27 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -399,8 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,30 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -488,181 +488,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,11 +676,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,77 +767,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1730,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>

--- a/策划文档/测试_功能.xlsx
+++ b/策划文档/测试_功能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="879" activeTab="1"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="879" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能" sheetId="17" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>主城</t>
   </si>
@@ -153,7 +153,7 @@
     <t>统帅：全屏放火时，每个地块都爆炸</t>
   </si>
   <si>
-    <t>术士：落雷的瞬间，屏幕变白；多次霹雷中间间隔增加</t>
+    <t>术士：落雷的瞬间，屏幕变白</t>
   </si>
   <si>
     <t>羁绊：音效，特效位置</t>
@@ -192,6 +192,12 @@
     <t>战车攻击时，播放火花</t>
   </si>
   <si>
+    <t>铁骑攻击时，有特殊火花和音效</t>
+  </si>
+  <si>
+    <t>狂士的攻击</t>
+  </si>
+  <si>
     <t>计算</t>
   </si>
   <si>
@@ -240,7 +246,7 @@
     <t>流血状态：没有伤害加成</t>
   </si>
   <si>
-    <t>统帅：第四个放火没有全屏</t>
+    <t>铁骑：铁蹄伤害没有加成</t>
   </si>
   <si>
     <t>羽林：混乱的友方攻击时，会反击</t>
@@ -259,6 +265,9 @@
   </si>
   <si>
     <t>上阵单位满的时候，不能替换阵上单位</t>
+  </si>
+  <si>
+    <t>本回合上阵的卡牌有黄色边框</t>
   </si>
 </sst>
 </file>
@@ -300,9 +309,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,29 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,14 +358,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,32 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +402,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,19 +473,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,19 +527,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,139 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +682,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,15 +705,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,17 +724,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,13 +742,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,8 +774,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -781,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,137 +802,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,16 +960,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1072,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="635"/>
+          <a:off x="8999220" y="635"/>
           <a:ext cx="9784080" cy="5097780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1078,13 +1090,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1102,7 +1114,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9845040" y="8907780"/>
+          <a:off x="9852660" y="9319260"/>
           <a:ext cx="3169920" cy="3825240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1120,13 +1132,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1144,7 +1156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="9585960"/>
+          <a:off x="6103620" y="9997440"/>
           <a:ext cx="2575560" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1169,7 +1181,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,7 +1198,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="5425440"/>
+          <a:off x="8641080" y="5425440"/>
           <a:ext cx="2743200" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1200,13 +1212,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1224,7 +1236,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="13456920"/>
+          <a:off x="3162300" y="14066520"/>
           <a:ext cx="2735580" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1242,13 +1254,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1266,7 +1278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="13472160"/>
+          <a:off x="114300" y="14081760"/>
           <a:ext cx="2735580" cy="5844540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1654,7 +1666,7 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1666,7 +1678,7 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1682,7 +1694,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1690,7 +1702,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1698,7 +1710,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1712,7 +1724,7 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1728,17 +1740,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1"/>
     <col min="2" max="2" width="8.88888888888889" style="2"/>
-    <col min="3" max="11" width="8.88888888888889" style="3"/>
+    <col min="3" max="8" width="8.88888888888889" style="3"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="11" width="8.88888888888889" style="3"/>
     <col min="12" max="12" width="15.6666666666667" style="3"/>
     <col min="13" max="16384" width="8.88888888888889" style="3"/>
   </cols>
@@ -2055,7 +2069,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2111,7 +2125,7 @@
       </c>
     </row>
     <row r="42" ht="16.2" spans="2:3">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2119,7 +2133,7 @@
       </c>
     </row>
     <row r="43" ht="16.2" spans="2:3">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2127,36 +2141,34 @@
       </c>
     </row>
     <row r="44" ht="16.2" spans="2:3">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
+    <row r="45" ht="16.2" spans="2:3">
+      <c r="B45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="46" ht="16.2" spans="2:3">
+      <c r="B46" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2174,7 +2186,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -2217,7 +2229,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3">
+      <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>1</v>
       </c>
@@ -2225,8 +2238,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="12" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2234,23 +2248,23 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="11" t="s">
-        <v>6</v>
+      <c r="B57" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="11" t="s">
-        <v>6</v>
+      <c r="B58" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2258,7 +2272,7 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -2266,7 +2280,7 @@
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -2274,46 +2288,70 @@
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+    <row r="63" spans="2:3">
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>1</v>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
       <c r="B66" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="11" t="s">
-        <v>6</v>
+      <c r="B67" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/测试_功能.xlsx
+++ b/策划文档/测试_功能.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="879" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="879" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能" sheetId="17" r:id="rId1"/>
     <sheet name="武将兵种" sheetId="15" r:id="rId2"/>
     <sheet name="00" sheetId="5" r:id="rId3"/>
+    <sheet name="报错" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -309,45 +310,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +349,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,9 +408,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -426,21 +441,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,9 +688,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +736,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -720,39 +756,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,11 +777,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,145 +791,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,6 +1377,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="38c1e83ecbcde2912f7c703efac7f98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="635"/>
+          <a:ext cx="3449320" cy="7666355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1666,7 +1710,7 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1742,7 +1786,7 @@
   <sheetPr/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:G32"/>
     </sheetView>
   </sheetViews>
@@ -2376,4 +2420,21 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>